--- a/Version 1.0/CarniDIET 1.0_Metadata.xlsx
+++ b/Version 1.0/CarniDIET 1.0_Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidd\OneDrive\Documents\R Repositories for GitHub Submission\CarniDIET\CarniDIET\Version 1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C6730-1E59-4824-97D2-228FE28D173F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABEED7D-DD72-4F56-8B07-86BED51DC3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata 1.0" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="238">
   <si>
     <t>Variable name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Site Name</t>
   </si>
   <si>
-    <t>Sample Source</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ordered factor</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Continuous</t>
   </si>
   <si>
-    <t>Ordinal</t>
-  </si>
-  <si>
     <t>Data.Source</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>End.Day</t>
   </si>
   <si>
-    <t>Date.Accuracy</t>
-  </si>
-  <si>
     <t>The year when sampling began, if given in the paper.</t>
   </si>
   <si>
@@ -222,21 +210,12 @@
     <t>End day, of the end month, in the end year, if given in the paper.</t>
   </si>
   <si>
-    <t>The accuracy of the study duration given in the paper.</t>
-  </si>
-  <si>
     <t>Altitude.Minimum</t>
   </si>
   <si>
     <t>Altitude.Maximum</t>
   </si>
   <si>
-    <t>The maximum height a.s.l of the study, as given in the paper.</t>
-  </si>
-  <si>
-    <t>The minimum height a.s.l of the study site, as given in the paper.</t>
-  </si>
-  <si>
     <t>Latitudinal vaue of the study area.</t>
   </si>
   <si>
@@ -361,12 +340,6 @@
   </si>
   <si>
     <t>2 to 31</t>
-  </si>
-  <si>
-    <t>1 = Day, month and year, 2 = Month and year, 3 = Year, 4 = No information.</t>
-  </si>
-  <si>
-    <t>The season in which the prey item was reported to be prey in. Most studies only include annual averages which is categorised as ‘Annual’. This is highly unstandardised across studies with the ecological context of season being highly varied.</t>
   </si>
   <si>
     <t>i.e. "Summer", "Winter", "Pup-rearing", "Prey boom"</t>
@@ -820,10 +793,22 @@
     <t>The binomial name of the mammal-consumer species the diet record is assigned.</t>
   </si>
   <si>
-    <t>The sample material from where food items were extracted and used to quantify diet compositions. Adjusted from sources for clarity and standardisation.</t>
-  </si>
-  <si>
     <t>The method used to calculate the importance of a prey item in the study. The range of methods used in dietary studies is broad and similar methods are often explained differently. These are most often generally reported as volumetric or as occurrence in sample which can inform different things about foraging behaviours and diets. Adjusted from sources for clarity and standardisation.</t>
+  </si>
+  <si>
+    <t>Sample Origin</t>
+  </si>
+  <si>
+    <t>The season in which the prey item was reported to be prey in. Most studies included annual averages, categorised as ‘Annual’. This is highly unstandardised across studies with season described depending on the context of the study (e.g. 'pup-rearing season').</t>
+  </si>
+  <si>
+    <t>The minimum height above sea level of the study site, as given in the paper.</t>
+  </si>
+  <si>
+    <t>The maximum height above sea level of the study, as given in the paper.</t>
+  </si>
+  <si>
+    <t>The sample material from where food items were extracted or composition estimated and used to quantify diet compositions. Adjusted from sources for clarity and standardisation.</t>
   </si>
 </sst>
 </file>
@@ -1336,25 +1321,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="31.68359375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="68.68359375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" style="13" customWidth="1"/>
     <col min="4" max="4" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.26171875" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="59.578125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.83984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1365,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1385,321 +1370,321 @@
         <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="12">
         <v>5</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="12">
         <v>15</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="12">
         <v>104</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12">
         <v>3</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="12">
         <v>4</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="12">
         <v>15</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="12">
         <v>62</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12">
         <v>130</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12">
         <v>490</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="12">
         <v>734</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="12">
         <v>854</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="12">
         <v>1649</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1707,77 +1692,77 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="12">
         <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="56.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>5</v>
@@ -1786,651 +1771,628 @@
         <v>14</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="12">
         <v>12</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="12">
         <v>12</v>
       </c>
       <c r="G25" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="56.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="12">
+        <v>56</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="12">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="G32" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="12">
+        <v>410</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="D34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="12">
+        <v>792</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30.9" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="12">
+        <v>4</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="12">
-        <v>4</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="12">
-        <v>56</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="12">
-        <v>107</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="E39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="12">
-        <v>410</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="12">
-        <v>791</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="12">
-        <v>4</v>
-      </c>
       <c r="G39" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="70.8" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="12">
+        <v>9</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="12">
-        <v>20</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="D41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="12">
+        <v>638</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="F42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="12">
+        <v>749</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="12">
+        <v>209</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="B45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="12">
-        <v>10</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="12">
-        <v>638</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="12">
+      <c r="D45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="12">
         <v>749</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="12">
-        <v>209</v>
-      </c>
       <c r="G45" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="42.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="12">
-        <v>749</v>
+        <v>683</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="12">
-        <v>683</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2447,392 +2409,392 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="174.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="43.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="174.83984375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E29" s="4"/>
     </row>

--- a/Version 1.0/CarniDIET 1.0_Metadata.xlsx
+++ b/Version 1.0/CarniDIET 1.0_Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidd\OneDrive\Documents\R Repositories for GitHub Submission\CarniDIET\CarniDIET\Version 1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidd\OneDrive\Documents\R Repositories for GitHub Submission\CarniDIET\CarniDIET-Database\CarniDIET\Version 1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0DECE-38F5-4218-B293-BBDAF891AA77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E455D0D-EC6F-4982-896B-D8FA7560A5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="263">
   <si>
     <t>Variable name</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>sourcePrimaryReference</t>
+  </si>
+  <si>
+    <t>island</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="42" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>209</v>

--- a/Version 1.0/CarniDIET 1.0_Metadata.xlsx
+++ b/Version 1.0/CarniDIET 1.0_Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidd\OneDrive\Documents\R Repositories for GitHub Submission\CarniDIET\CarniDIET-Database\CarniDIET\Version 1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omidd\OneDrive\Documents\R Repositories for GitHub Submission\Manuscripts\GEB_2021_CarniDIET\CarniDIET-Database\CarniDIET\Version 1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E455D0D-EC6F-4982-896B-D8FA7560A5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E4B0A-B4CB-4026-8670-C8DA027C3E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata 1.0" sheetId="1" r:id="rId1"/>
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="41" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="10">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>249</v>
@@ -2633,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="10">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>252</v>
@@ -2656,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="10">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>252</v>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4D2910-2948-4406-9002-6EE848D35A18}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
